--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -3502,28 +3502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9414.508864720188</v>
+        <v>9597.272281724769</v>
       </c>
       <c r="AB2" t="n">
-        <v>12881.34636752887</v>
+        <v>13131.41133762745</v>
       </c>
       <c r="AC2" t="n">
-        <v>11651.9687492946</v>
+        <v>11878.16786961536</v>
       </c>
       <c r="AD2" t="n">
-        <v>9414508.864720188</v>
+        <v>9597272.281724768</v>
       </c>
       <c r="AE2" t="n">
-        <v>12881346.36752887</v>
+        <v>13131411.33762745</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.194944463467071e-07</v>
+        <v>9.612007368833983e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.24895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>11651968.7492946</v>
+        <v>11878167.86961536</v>
       </c>
     </row>
     <row r="3">
@@ -3608,28 +3608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3099.591075833778</v>
+        <v>3196.985288542612</v>
       </c>
       <c r="AB3" t="n">
-        <v>4240.997254263354</v>
+        <v>4374.256312821005</v>
       </c>
       <c r="AC3" t="n">
-        <v>3836.242428593331</v>
+        <v>3956.783429632496</v>
       </c>
       <c r="AD3" t="n">
-        <v>3099591.075833778</v>
+        <v>3196985.288542612</v>
       </c>
       <c r="AE3" t="n">
-        <v>4240997.254263354</v>
+        <v>4374256.312821005</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.803433528362461e-07</v>
+        <v>1.813891870782487e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>3836242.428593331</v>
+        <v>3956783.429632496</v>
       </c>
     </row>
     <row r="4">
@@ -3714,28 +3714,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2365.336497038378</v>
+        <v>2450.535109133534</v>
       </c>
       <c r="AB4" t="n">
-        <v>3236.3577465296</v>
+        <v>3352.930246295688</v>
       </c>
       <c r="AC4" t="n">
-        <v>2927.484305457318</v>
+        <v>3032.931289456257</v>
       </c>
       <c r="AD4" t="n">
-        <v>2365336.497038378</v>
+        <v>2450535.109133534</v>
       </c>
       <c r="AE4" t="n">
-        <v>3236357.7465296</v>
+        <v>3352930.246295688</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.148548097749965e-06</v>
+        <v>2.125114687302161e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.23125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2927484.305457318</v>
+        <v>3032931.289456257</v>
       </c>
     </row>
     <row r="5">
@@ -3820,28 +3820,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2063.013116123129</v>
+        <v>2136.101468459178</v>
       </c>
       <c r="AB5" t="n">
-        <v>2822.705559194922</v>
+        <v>2922.70826729164</v>
       </c>
       <c r="AC5" t="n">
-        <v>2553.310502317494</v>
+        <v>2643.769092308142</v>
       </c>
       <c r="AD5" t="n">
-        <v>2063013.116123129</v>
+        <v>2136101.468459178</v>
       </c>
       <c r="AE5" t="n">
-        <v>2822705.559194922</v>
+        <v>2922708.26729164</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.238267020665782e-06</v>
+        <v>2.291118184405022e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.27291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2553310.502317493</v>
+        <v>2643769.092308142</v>
       </c>
     </row>
     <row r="6">
@@ -3926,28 +3926,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1883.353461172889</v>
+        <v>1956.527064854958</v>
       </c>
       <c r="AB6" t="n">
-        <v>2576.887293267418</v>
+        <v>2677.006646016785</v>
       </c>
       <c r="AC6" t="n">
-        <v>2330.952786682006</v>
+        <v>2421.516888923367</v>
       </c>
       <c r="AD6" t="n">
-        <v>1883353.461172889</v>
+        <v>1956527.064854958</v>
       </c>
       <c r="AE6" t="n">
-        <v>2576887.293267418</v>
+        <v>2677006.646016785</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.294140756400348e-06</v>
+        <v>2.394499224064203e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.74166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2330952.786682006</v>
+        <v>2421516.888923367</v>
       </c>
     </row>
     <row r="7">
@@ -4032,28 +4032,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1765.912547684526</v>
+        <v>1838.915559166003</v>
       </c>
       <c r="AB7" t="n">
-        <v>2416.199454305203</v>
+        <v>2516.085395279723</v>
       </c>
       <c r="AC7" t="n">
-        <v>2185.600769543546</v>
+        <v>2275.953736502257</v>
       </c>
       <c r="AD7" t="n">
-        <v>1765912.547684526</v>
+        <v>1838915.559166003</v>
       </c>
       <c r="AE7" t="n">
-        <v>2416199.454305203</v>
+        <v>2516085.395279723</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.332654245261772e-06</v>
+        <v>2.465759261844943e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.403125</v>
       </c>
       <c r="AH7" t="n">
-        <v>2185600.769543546</v>
+        <v>2275953.736502257</v>
       </c>
     </row>
     <row r="8">
@@ -4138,28 +4138,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1670.502695024878</v>
+        <v>1731.480787601819</v>
       </c>
       <c r="AB8" t="n">
-        <v>2285.655484710642</v>
+        <v>2369.088401137996</v>
       </c>
       <c r="AC8" t="n">
-        <v>2067.515733187478</v>
+        <v>2142.98592916984</v>
       </c>
       <c r="AD8" t="n">
-        <v>1670502.695024878</v>
+        <v>1731480.787601819</v>
       </c>
       <c r="AE8" t="n">
-        <v>2285655.484710642</v>
+        <v>2369088.401137996</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.36153936190784e-06</v>
+        <v>2.519204290180499e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.16041666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2067515.733187479</v>
+        <v>2142985.92916984</v>
       </c>
     </row>
     <row r="9">
@@ -4244,28 +4244,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1577.327466582755</v>
+        <v>1650.415729410252</v>
       </c>
       <c r="AB9" t="n">
-        <v>2158.169026555162</v>
+        <v>2258.171612182332</v>
       </c>
       <c r="AC9" t="n">
-        <v>1952.19640366999</v>
+        <v>2042.654882879413</v>
       </c>
       <c r="AD9" t="n">
-        <v>1577327.466582755</v>
+        <v>1650415.729410252</v>
       </c>
       <c r="AE9" t="n">
-        <v>2158169.026555162</v>
+        <v>2258171.612182332</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.38400556374367e-06</v>
+        <v>2.560772645552597e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.98020833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1952196.40366999</v>
+        <v>2042654.882879413</v>
       </c>
     </row>
     <row r="10">
@@ -4350,28 +4350,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1506.695374561272</v>
+        <v>1579.78363738877</v>
       </c>
       <c r="AB10" t="n">
-        <v>2061.527082183391</v>
+        <v>2161.52966781056</v>
       </c>
       <c r="AC10" t="n">
-        <v>1864.77783083124</v>
+        <v>1955.236310040663</v>
       </c>
       <c r="AD10" t="n">
-        <v>1506695.374561272</v>
+        <v>1579783.63738877</v>
       </c>
       <c r="AE10" t="n">
-        <v>2061527.082183391</v>
+        <v>2161529.66781056</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.401219926189307e-06</v>
+        <v>2.592623723045504e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.84479166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1864777.83083124</v>
+        <v>1955236.310040663</v>
       </c>
     </row>
     <row r="11">
@@ -4456,28 +4456,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1494.070963421714</v>
+        <v>1567.159226249212</v>
       </c>
       <c r="AB11" t="n">
-        <v>2044.253805912536</v>
+        <v>2144.256391539705</v>
       </c>
       <c r="AC11" t="n">
-        <v>1849.153091804479</v>
+        <v>1939.611571013902</v>
       </c>
       <c r="AD11" t="n">
-        <v>1494070.963421714</v>
+        <v>1567159.226249211</v>
       </c>
       <c r="AE11" t="n">
-        <v>2044253.805912536</v>
+        <v>2144256.391539705</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.403845845884404e-06</v>
+        <v>2.5974823619851e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.825</v>
       </c>
       <c r="AH11" t="n">
-        <v>1849153.091804479</v>
+        <v>1939611.571013902</v>
       </c>
     </row>
     <row r="12">
@@ -4562,28 +4562,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1501.250026682852</v>
+        <v>1574.33828951035</v>
       </c>
       <c r="AB12" t="n">
-        <v>2054.076516984344</v>
+        <v>2154.079102611513</v>
       </c>
       <c r="AC12" t="n">
-        <v>1858.038337117856</v>
+        <v>1948.496816327279</v>
       </c>
       <c r="AD12" t="n">
-        <v>1501250.026682853</v>
+        <v>1574338.28951035</v>
       </c>
       <c r="AE12" t="n">
-        <v>2054076.516984344</v>
+        <v>2154079.102611513</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.403699961456899e-06</v>
+        <v>2.597212437599567e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.82604166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1858038.337117856</v>
+        <v>1948496.816327279</v>
       </c>
     </row>
   </sheetData>
@@ -4859,28 +4859,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5606.257739949778</v>
+        <v>5747.336944687813</v>
       </c>
       <c r="AB2" t="n">
-        <v>7670.729170435491</v>
+        <v>7863.75996233333</v>
       </c>
       <c r="AC2" t="n">
-        <v>6938.645544344845</v>
+        <v>7113.253748384365</v>
       </c>
       <c r="AD2" t="n">
-        <v>5606257.739949778</v>
+        <v>5747336.944687814</v>
       </c>
       <c r="AE2" t="n">
-        <v>7670729.170435491</v>
+        <v>7863759.96233333</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.851559124169731e-07</v>
+        <v>1.306012910822147e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.94583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>6938645.544344845</v>
+        <v>7113253.748384365</v>
       </c>
     </row>
     <row r="3">
@@ -4965,28 +4965,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2411.761755297031</v>
+        <v>2494.02248888003</v>
       </c>
       <c r="AB3" t="n">
-        <v>3299.878833016935</v>
+        <v>3412.43159779264</v>
       </c>
       <c r="AC3" t="n">
-        <v>2984.943028602704</v>
+        <v>3086.753915477009</v>
       </c>
       <c r="AD3" t="n">
-        <v>2411761.75529703</v>
+        <v>2494022.48888003</v>
       </c>
       <c r="AE3" t="n">
-        <v>3299878.833016935</v>
+        <v>3412431.59779264</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.107719030207177e-06</v>
+        <v>2.111483428509815e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.19270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2984943.028602704</v>
+        <v>3086753.915477009</v>
       </c>
     </row>
     <row r="4">
@@ -5071,28 +5071,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1902.687642106993</v>
+        <v>1973.184663557276</v>
       </c>
       <c r="AB4" t="n">
-        <v>2603.341172585323</v>
+        <v>2699.798307442686</v>
       </c>
       <c r="AC4" t="n">
-        <v>2354.881944886063</v>
+        <v>2442.133346171079</v>
       </c>
       <c r="AD4" t="n">
-        <v>1902687.642106993</v>
+        <v>1973184.663557276</v>
       </c>
       <c r="AE4" t="n">
-        <v>2603341.172585323</v>
+        <v>2699798.307442686</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.260596329607704e-06</v>
+        <v>2.402891155087532e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.46979166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2354881.944886063</v>
+        <v>2442133.346171079</v>
       </c>
     </row>
     <row r="5">
@@ -5177,28 +5177,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1669.744999432933</v>
+        <v>1740.327272229237</v>
       </c>
       <c r="AB5" t="n">
-        <v>2284.618772174574</v>
+        <v>2381.192551684585</v>
       </c>
       <c r="AC5" t="n">
-        <v>2066.577963040817</v>
+        <v>2153.934876576545</v>
       </c>
       <c r="AD5" t="n">
-        <v>1669744.999432933</v>
+        <v>1740327.272229237</v>
       </c>
       <c r="AE5" t="n">
-        <v>2284618.772174574</v>
+        <v>2381192.551684585</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.341788814383108e-06</v>
+        <v>2.557656561700377e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.715625</v>
       </c>
       <c r="AH5" t="n">
-        <v>2066577.963040817</v>
+        <v>2153934.876576545</v>
       </c>
     </row>
     <row r="6">
@@ -5283,28 +5283,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1531.192076276772</v>
+        <v>1601.603756872483</v>
       </c>
       <c r="AB6" t="n">
-        <v>2095.044550188744</v>
+        <v>2191.38491792391</v>
       </c>
       <c r="AC6" t="n">
-        <v>1895.096438732224</v>
+        <v>1982.2422169853</v>
       </c>
       <c r="AD6" t="n">
-        <v>1531192.076276772</v>
+        <v>1601603.756872483</v>
       </c>
       <c r="AE6" t="n">
-        <v>2095044.550188744</v>
+        <v>2191384.91792391</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.391590896122667e-06</v>
+        <v>2.652587015570709e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.296875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1895096.438732224</v>
+        <v>1982242.2169853</v>
       </c>
     </row>
     <row r="7">
@@ -5389,28 +5389,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1417.362210504472</v>
+        <v>1476.180860676609</v>
       </c>
       <c r="AB7" t="n">
-        <v>1939.297506019828</v>
+        <v>2019.775778081054</v>
       </c>
       <c r="AC7" t="n">
-        <v>1754.21367386644</v>
+        <v>1827.011212594106</v>
       </c>
       <c r="AD7" t="n">
-        <v>1417362.210504472</v>
+        <v>1476180.860676609</v>
       </c>
       <c r="AE7" t="n">
-        <v>1939297.506019828</v>
+        <v>2019775.778081054</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.426905099537992e-06</v>
+        <v>2.719901337406035e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.01770833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1754213.67386644</v>
+        <v>1827011.212594106</v>
       </c>
     </row>
     <row r="8">
@@ -5495,28 +5495,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1362.835696153583</v>
+        <v>1433.332628095314</v>
       </c>
       <c r="AB8" t="n">
-        <v>1864.691923544902</v>
+        <v>1961.148935932717</v>
       </c>
       <c r="AC8" t="n">
-        <v>1686.728343473328</v>
+        <v>1773.979633977117</v>
       </c>
       <c r="AD8" t="n">
-        <v>1362835.696153583</v>
+        <v>1433332.628095314</v>
       </c>
       <c r="AE8" t="n">
-        <v>1864691.923544902</v>
+        <v>1961148.935932717</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.438676500676433e-06</v>
+        <v>2.742339444684478e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.92604166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1686728.343473328</v>
+        <v>1773979.633977117</v>
       </c>
     </row>
     <row r="9">
@@ -5601,28 +5601,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1366.56571359257</v>
+        <v>1437.062645534302</v>
       </c>
       <c r="AB9" t="n">
-        <v>1869.79549796168</v>
+        <v>1966.252510349495</v>
       </c>
       <c r="AC9" t="n">
-        <v>1691.34483991068</v>
+        <v>1778.596130414469</v>
       </c>
       <c r="AD9" t="n">
-        <v>1366565.71359257</v>
+        <v>1437062.645534302</v>
       </c>
       <c r="AE9" t="n">
-        <v>1869795.49796168</v>
+        <v>1966252.510349495</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.439732908470908e-06</v>
+        <v>2.744353120978697e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.91875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1691344.83991068</v>
+        <v>1778596.130414469</v>
       </c>
     </row>
   </sheetData>
@@ -5898,28 +5898,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1742.023189843024</v>
+        <v>1815.352628135931</v>
       </c>
       <c r="AB2" t="n">
-        <v>2383.512980982373</v>
+        <v>2483.845553521227</v>
       </c>
       <c r="AC2" t="n">
-        <v>2156.033847358894</v>
+        <v>2246.79081999229</v>
       </c>
       <c r="AD2" t="n">
-        <v>1742023.189843024</v>
+        <v>1815352.628135931</v>
       </c>
       <c r="AE2" t="n">
-        <v>2383512.980982373</v>
+        <v>2483845.553521228</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.208267133716012e-06</v>
+        <v>2.573292787760832e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.51875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2156033.847358894</v>
+        <v>2246790.81999229</v>
       </c>
     </row>
     <row r="3">
@@ -6004,28 +6004,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1085.984990935937</v>
+        <v>1148.765645883082</v>
       </c>
       <c r="AB3" t="n">
-        <v>1485.892574875012</v>
+        <v>1571.791836660718</v>
       </c>
       <c r="AC3" t="n">
-        <v>1344.081072992267</v>
+        <v>1421.782229793516</v>
       </c>
       <c r="AD3" t="n">
-        <v>1085984.990935937</v>
+        <v>1148765.645883082</v>
       </c>
       <c r="AE3" t="n">
-        <v>1485892.574875012</v>
+        <v>1571791.836660718</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.505997627431679e-06</v>
+        <v>3.207380822431376e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.64791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1344081.072992267</v>
+        <v>1421782.229793516</v>
       </c>
     </row>
     <row r="4">
@@ -6110,28 +6110,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1073.917382857386</v>
+        <v>1136.698037804532</v>
       </c>
       <c r="AB4" t="n">
-        <v>1469.381141116644</v>
+        <v>1555.28040290235</v>
       </c>
       <c r="AC4" t="n">
-        <v>1329.145467297855</v>
+        <v>1406.846624099104</v>
       </c>
       <c r="AD4" t="n">
-        <v>1073917.382857386</v>
+        <v>1136698.037804532</v>
       </c>
       <c r="AE4" t="n">
-        <v>1469381.141116644</v>
+        <v>1555280.40290235</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.51643840266379e-06</v>
+        <v>3.229616941294257e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.56770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1329145.467297855</v>
+        <v>1406846.624099104</v>
       </c>
     </row>
   </sheetData>
@@ -6407,28 +6407,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2672.777388757676</v>
+        <v>2771.438212318908</v>
       </c>
       <c r="AB2" t="n">
-        <v>3657.011937914858</v>
+        <v>3792.004029319687</v>
       </c>
       <c r="AC2" t="n">
-        <v>3307.991851208617</v>
+        <v>3430.100486872354</v>
       </c>
       <c r="AD2" t="n">
-        <v>2672777.388757676</v>
+        <v>2771438.212318908</v>
       </c>
       <c r="AE2" t="n">
-        <v>3657011.937914858</v>
+        <v>3792004.029319687</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.965803996338384e-07</v>
+        <v>2.023402760654827e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.83854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3307991.851208617</v>
+        <v>3430100.486872354</v>
       </c>
     </row>
     <row r="3">
@@ -6513,28 +6513,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1518.710846953743</v>
+        <v>1584.456371884925</v>
       </c>
       <c r="AB3" t="n">
-        <v>2077.967181596001</v>
+        <v>2167.923109294697</v>
       </c>
       <c r="AC3" t="n">
-        <v>1879.648910229734</v>
+        <v>1961.019570442804</v>
       </c>
       <c r="AD3" t="n">
-        <v>1518710.846953743</v>
+        <v>1584456.371884925</v>
       </c>
       <c r="AE3" t="n">
-        <v>2077967.181596001</v>
+        <v>2167923.109294697</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.347622865007607e-06</v>
+        <v>2.736140331858654e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1879648.910229734</v>
+        <v>1961019.570442804</v>
       </c>
     </row>
     <row r="4">
@@ -6619,28 +6619,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1229.095452986471</v>
+        <v>1294.75563706308</v>
       </c>
       <c r="AB4" t="n">
-        <v>1681.702622640547</v>
+        <v>1771.541783217046</v>
       </c>
       <c r="AC4" t="n">
-        <v>1521.203284620187</v>
+        <v>1602.468321801319</v>
       </c>
       <c r="AD4" t="n">
-        <v>1229095.452986471</v>
+        <v>1294755.63706308</v>
       </c>
       <c r="AE4" t="n">
-        <v>1681702.622640547</v>
+        <v>1771541.783217045</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.472638446985599e-06</v>
+        <v>2.989965185118942e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.39479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1521203.284620187</v>
+        <v>1602468.321801319</v>
       </c>
     </row>
     <row r="5">
@@ -6725,28 +6725,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1173.202254549089</v>
+        <v>1228.061324288641</v>
       </c>
       <c r="AB5" t="n">
-        <v>1605.227082704636</v>
+        <v>1680.287682133639</v>
       </c>
       <c r="AC5" t="n">
-        <v>1452.026462881665</v>
+        <v>1519.923384049377</v>
       </c>
       <c r="AD5" t="n">
-        <v>1173202.254549089</v>
+        <v>1228061.324288641</v>
       </c>
       <c r="AE5" t="n">
-        <v>1605227.082704636</v>
+        <v>1680287.682133639</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.496964932653997e-06</v>
+        <v>3.039356361462117e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.21041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1452026.462881665</v>
+        <v>1519923.384049377</v>
       </c>
     </row>
     <row r="6">
@@ -6831,28 +6831,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1180.773865877242</v>
+        <v>1235.632935616794</v>
       </c>
       <c r="AB6" t="n">
-        <v>1615.586895359731</v>
+        <v>1690.647494788734</v>
       </c>
       <c r="AC6" t="n">
-        <v>1461.397549557047</v>
+        <v>1529.294470724758</v>
       </c>
       <c r="AD6" t="n">
-        <v>1180773.865877242</v>
+        <v>1235632.935616794</v>
       </c>
       <c r="AE6" t="n">
-        <v>1615586.895359731</v>
+        <v>1690647.494788734</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.496803830099902e-06</v>
+        <v>3.03902926757905e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.21145833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1461397.549557047</v>
+        <v>1529294.470724758</v>
       </c>
     </row>
   </sheetData>
@@ -7128,28 +7128,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1202.534934430418</v>
+        <v>1262.813953720929</v>
       </c>
       <c r="AB2" t="n">
-        <v>1645.361349384775</v>
+        <v>1727.837762900699</v>
       </c>
       <c r="AC2" t="n">
-        <v>1488.330371478649</v>
+        <v>1562.935351844987</v>
       </c>
       <c r="AD2" t="n">
-        <v>1202534.934430418</v>
+        <v>1262813.95372093</v>
       </c>
       <c r="AE2" t="n">
-        <v>1645361.349384775</v>
+        <v>1727837.762900699</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.396378883102739e-06</v>
+        <v>3.109463026303443e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1488330.371478649</v>
+        <v>1562935.351844987</v>
       </c>
     </row>
     <row r="3">
@@ -7234,28 +7234,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1009.662820521086</v>
+        <v>1069.856498957026</v>
       </c>
       <c r="AB3" t="n">
-        <v>1381.465214216891</v>
+        <v>1463.824860610617</v>
       </c>
       <c r="AC3" t="n">
-        <v>1249.620113070636</v>
+        <v>1324.119470405035</v>
       </c>
       <c r="AD3" t="n">
-        <v>1009662.820521086</v>
+        <v>1069856.498957026</v>
       </c>
       <c r="AE3" t="n">
-        <v>1381465.214216891</v>
+        <v>1463824.860610617</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.511636108048218e-06</v>
+        <v>3.366118353750082e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.05208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1249620.113070636</v>
+        <v>1324119.470405035</v>
       </c>
     </row>
   </sheetData>
@@ -7531,28 +7531,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6356.505680158015</v>
+        <v>6498.947192743097</v>
       </c>
       <c r="AB2" t="n">
-        <v>8697.2515008316</v>
+        <v>8892.146262426546</v>
       </c>
       <c r="AC2" t="n">
-        <v>7867.19802426105</v>
+        <v>8043.492303345885</v>
       </c>
       <c r="AD2" t="n">
-        <v>6356505.680158015</v>
+        <v>6498947.192743097</v>
       </c>
       <c r="AE2" t="n">
-        <v>8697251.5008316</v>
+        <v>8892146.262426546</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.414617120264242e-07</v>
+        <v>1.212852499912162e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.28958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>7867198.02426105</v>
+        <v>8043492.303345885</v>
       </c>
     </row>
     <row r="3">
@@ -7637,28 +7637,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2570.58817923127</v>
+        <v>2653.814132378984</v>
       </c>
       <c r="AB3" t="n">
-        <v>3517.192153171074</v>
+        <v>3631.065573937703</v>
       </c>
       <c r="AC3" t="n">
-        <v>3181.516270482484</v>
+        <v>3284.521771793492</v>
       </c>
       <c r="AD3" t="n">
-        <v>2570588.17923127</v>
+        <v>2653814.132378984</v>
       </c>
       <c r="AE3" t="n">
-        <v>3517192.153171074</v>
+        <v>3631065.573937703</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.074138031189969e-06</v>
+        <v>2.030941164460048e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.50416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3181516.270482484</v>
+        <v>3284521.771793492</v>
       </c>
     </row>
     <row r="4">
@@ -7743,28 +7743,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2011.502895084501</v>
+        <v>2094.558166523073</v>
       </c>
       <c r="AB4" t="n">
-        <v>2752.227002299303</v>
+        <v>2865.86688882153</v>
       </c>
       <c r="AC4" t="n">
-        <v>2489.558319974715</v>
+        <v>2592.352575221843</v>
       </c>
       <c r="AD4" t="n">
-        <v>2011502.895084501</v>
+        <v>2094558.166523073</v>
       </c>
       <c r="AE4" t="n">
-        <v>2752227.002299303</v>
+        <v>2865866.88882153</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.23132531478516e-06</v>
+        <v>2.328145169451347e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.65208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2489558.319974715</v>
+        <v>2592352.575221844</v>
       </c>
     </row>
     <row r="5">
@@ -7849,28 +7849,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1766.096226480543</v>
+        <v>1837.359608446094</v>
       </c>
       <c r="AB5" t="n">
-        <v>2416.45077173725</v>
+        <v>2513.956474861042</v>
       </c>
       <c r="AC5" t="n">
-        <v>2185.828101592605</v>
+        <v>2274.027997260377</v>
       </c>
       <c r="AD5" t="n">
-        <v>1766096.226480543</v>
+        <v>1837359.608446094</v>
       </c>
       <c r="AE5" t="n">
-        <v>2416450.77173725</v>
+        <v>2513956.474861043</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.313882289613462e-06</v>
+        <v>2.48424089804811e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.85729166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2185828.101592605</v>
+        <v>2274027.997260377</v>
       </c>
     </row>
     <row r="6">
@@ -7955,28 +7955,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1623.159832760372</v>
+        <v>1694.25262252533</v>
       </c>
       <c r="AB6" t="n">
-        <v>2220.87889194067</v>
+        <v>2318.151183289615</v>
       </c>
       <c r="AC6" t="n">
-        <v>2008.921327516953</v>
+        <v>2096.910087902073</v>
       </c>
       <c r="AD6" t="n">
-        <v>1623159.832760372</v>
+        <v>1694252.62252533</v>
       </c>
       <c r="AE6" t="n">
-        <v>2220878.89194067</v>
+        <v>2318151.183289615</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.36413436124808e-06</v>
+        <v>2.579255689367878e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.42083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2008921.327516953</v>
+        <v>2096910.087902074</v>
       </c>
     </row>
     <row r="7">
@@ -8061,28 +8061,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1505.944815429631</v>
+        <v>1565.331056576141</v>
       </c>
       <c r="AB7" t="n">
-        <v>2060.500134067148</v>
+        <v>2141.755009139857</v>
       </c>
       <c r="AC7" t="n">
-        <v>1863.84889320188</v>
+        <v>1937.348917039583</v>
       </c>
       <c r="AD7" t="n">
-        <v>1505944.815429631</v>
+        <v>1565331.056576141</v>
       </c>
       <c r="AE7" t="n">
-        <v>2060500.134067148</v>
+        <v>2141755.009139857</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.402571213659083e-06</v>
+        <v>2.65193069344282e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.10729166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1863848.89320188</v>
+        <v>1937348.917039583</v>
       </c>
     </row>
     <row r="8">
@@ -8167,28 +8167,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1406.710142395443</v>
+        <v>1477.888183506422</v>
       </c>
       <c r="AB8" t="n">
-        <v>1924.722876496976</v>
+        <v>2022.111812498571</v>
       </c>
       <c r="AC8" t="n">
-        <v>1741.030026529627</v>
+        <v>1829.12429916546</v>
       </c>
       <c r="AD8" t="n">
-        <v>1406710.142395443</v>
+        <v>1477888.183506422</v>
       </c>
       <c r="AE8" t="n">
-        <v>1924722.876496976</v>
+        <v>2022111.812498571</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.426949450791353e-06</v>
+        <v>2.698024178517588e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.91770833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1741030.026529627</v>
+        <v>1829124.29916546</v>
       </c>
     </row>
     <row r="9">
@@ -8273,28 +8273,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1393.501074191639</v>
+        <v>1464.679115302618</v>
       </c>
       <c r="AB9" t="n">
-        <v>1906.64964663757</v>
+        <v>2004.038582639165</v>
       </c>
       <c r="AC9" t="n">
-        <v>1724.681680362065</v>
+        <v>1812.775952997899</v>
       </c>
       <c r="AD9" t="n">
-        <v>1393501.074191639</v>
+        <v>1464679.115302618</v>
       </c>
       <c r="AE9" t="n">
-        <v>1906649.64663757</v>
+        <v>2004038.582639165</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.431436242901587e-06</v>
+        <v>2.706507642028282e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.88333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1724681.680362065</v>
+        <v>1812775.952997899</v>
       </c>
     </row>
   </sheetData>
@@ -8570,28 +8570,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>976.4645827218872</v>
+        <v>1044.976364760907</v>
       </c>
       <c r="AB2" t="n">
-        <v>1336.041920657143</v>
+        <v>1429.782763369434</v>
       </c>
       <c r="AC2" t="n">
-        <v>1208.531954896237</v>
+        <v>1293.326303146166</v>
       </c>
       <c r="AD2" t="n">
-        <v>976464.5827218872</v>
+        <v>1044976.364760907</v>
       </c>
       <c r="AE2" t="n">
-        <v>1336041.920657143</v>
+        <v>1429782.763369434</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.486662419492799e-06</v>
+        <v>3.408272828704447e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.54166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1208531.954896237</v>
+        <v>1293326.303146166</v>
       </c>
     </row>
     <row r="3">
@@ -8676,28 +8676,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>976.2956755696192</v>
+        <v>1035.007958132391</v>
       </c>
       <c r="AB3" t="n">
-        <v>1335.810814439752</v>
+        <v>1416.143549645236</v>
       </c>
       <c r="AC3" t="n">
-        <v>1208.322905131875</v>
+        <v>1280.988796837049</v>
       </c>
       <c r="AD3" t="n">
-        <v>976295.6755696192</v>
+        <v>1035007.958132391</v>
       </c>
       <c r="AE3" t="n">
-        <v>1335810.814439752</v>
+        <v>1416143.549645236</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.494537828408966e-06</v>
+        <v>3.426327729314006e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.475</v>
       </c>
       <c r="AH3" t="n">
-        <v>1208322.905131875</v>
+        <v>1280988.796837049</v>
       </c>
     </row>
   </sheetData>
@@ -8973,28 +8973,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3895.108839481511</v>
+        <v>4009.061746148082</v>
       </c>
       <c r="AB2" t="n">
-        <v>5329.459754253043</v>
+        <v>5485.375148401688</v>
       </c>
       <c r="AC2" t="n">
-        <v>4820.823595250676</v>
+        <v>4961.8586430104</v>
       </c>
       <c r="AD2" t="n">
-        <v>3895108.839481512</v>
+        <v>4009061.746148081</v>
       </c>
       <c r="AE2" t="n">
-        <v>5329459.754253043</v>
+        <v>5485375.148401689</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.28137746384737e-07</v>
+        <v>1.623138538104936e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.55729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4820823.595250675</v>
+        <v>4961858.643010399</v>
       </c>
     </row>
     <row r="3">
@@ -9079,28 +9079,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1950.997024443436</v>
+        <v>2030.593466909442</v>
       </c>
       <c r="AB3" t="n">
-        <v>2669.440200757576</v>
+        <v>2778.347564886775</v>
       </c>
       <c r="AC3" t="n">
-        <v>2414.672574580125</v>
+        <v>2513.185972729279</v>
       </c>
       <c r="AD3" t="n">
-        <v>1950997.024443435</v>
+        <v>2030593.466909442</v>
       </c>
       <c r="AE3" t="n">
-        <v>2669440.200757576</v>
+        <v>2778347.564886775</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.218105727596326e-06</v>
+        <v>2.387470391947817e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2414672.574580125</v>
+        <v>2513185.972729279</v>
       </c>
     </row>
     <row r="4">
@@ -9185,28 +9185,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1565.643036923096</v>
+        <v>1645.239389880551</v>
       </c>
       <c r="AB4" t="n">
-        <v>2142.181874414161</v>
+        <v>2251.089116073812</v>
       </c>
       <c r="AC4" t="n">
-        <v>1937.735042891216</v>
+        <v>2036.248330259144</v>
       </c>
       <c r="AD4" t="n">
-        <v>1565643.036923096</v>
+        <v>1645239.389880551</v>
       </c>
       <c r="AE4" t="n">
-        <v>2142181.874414161</v>
+        <v>2251089.116073812</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.357735411459167e-06</v>
+        <v>2.661142642645945e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.92916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1937735.042891216</v>
+        <v>2036248.330259144</v>
       </c>
     </row>
     <row r="5">
@@ -9291,28 +9291,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1383.086245918155</v>
+        <v>1451.287397717505</v>
       </c>
       <c r="AB5" t="n">
-        <v>1892.399619123994</v>
+        <v>1985.71544383833</v>
       </c>
       <c r="AC5" t="n">
-        <v>1711.791655474346</v>
+        <v>1796.201548847528</v>
       </c>
       <c r="AD5" t="n">
-        <v>1383086.245918155</v>
+        <v>1451287.397717505</v>
       </c>
       <c r="AE5" t="n">
-        <v>1892399.619123994</v>
+        <v>1985715.44383833</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.429416128898777e-06</v>
+        <v>2.801635858204784e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.33125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1711791.655474346</v>
+        <v>1796201.548847528</v>
       </c>
     </row>
     <row r="6">
@@ -9397,28 +9397,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1276.134614993961</v>
+        <v>1333.111157835797</v>
       </c>
       <c r="AB6" t="n">
-        <v>1746.063679320561</v>
+        <v>1824.021498864428</v>
       </c>
       <c r="AC6" t="n">
-        <v>1579.421812381971</v>
+        <v>1649.939447043059</v>
       </c>
       <c r="AD6" t="n">
-        <v>1276134.614993961</v>
+        <v>1333111.157835797</v>
       </c>
       <c r="AE6" t="n">
-        <v>1746063.679320561</v>
+        <v>1824021.498864428</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.46704461831393e-06</v>
+        <v>2.875387177435238e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.03958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1579421.812381971</v>
+        <v>1649939.447043059</v>
       </c>
     </row>
     <row r="7">
@@ -9503,28 +9503,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1277.492490579582</v>
+        <v>1334.469033421418</v>
       </c>
       <c r="AB7" t="n">
-        <v>1747.921584602051</v>
+        <v>1825.879404145918</v>
       </c>
       <c r="AC7" t="n">
-        <v>1581.102401790982</v>
+        <v>1651.62003645207</v>
       </c>
       <c r="AD7" t="n">
-        <v>1277492.490579582</v>
+        <v>1334469.033421418</v>
       </c>
       <c r="AE7" t="n">
-        <v>1747921.584602051</v>
+        <v>1825879.404145918</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.469065983447802e-06</v>
+        <v>2.879349025162493e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.02604166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1581102.401790982</v>
+        <v>1651620.03645207</v>
       </c>
     </row>
   </sheetData>
@@ -9800,28 +9800,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4962.792790867925</v>
+        <v>5090.897440793974</v>
       </c>
       <c r="AB2" t="n">
-        <v>6790.312039431597</v>
+        <v>6965.590473038716</v>
       </c>
       <c r="AC2" t="n">
-        <v>6142.254188650791</v>
+        <v>6300.804294559266</v>
       </c>
       <c r="AD2" t="n">
-        <v>4962792.790867925</v>
+        <v>5090897.440793974</v>
       </c>
       <c r="AE2" t="n">
-        <v>6790312.039431596</v>
+        <v>6965590.473038715</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.306651089786638e-07</v>
+        <v>1.404852056386269e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.72083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6142254.188650791</v>
+        <v>6300804.294559266</v>
       </c>
     </row>
     <row r="3">
@@ -9906,28 +9906,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2245.906932341422</v>
+        <v>2338.903268760316</v>
       </c>
       <c r="AB3" t="n">
-        <v>3072.948947250678</v>
+        <v>3200.190637447824</v>
       </c>
       <c r="AC3" t="n">
-        <v>2779.671012635893</v>
+        <v>2894.768934505452</v>
       </c>
       <c r="AD3" t="n">
-        <v>2245906.932341422</v>
+        <v>2338903.268760316</v>
       </c>
       <c r="AE3" t="n">
-        <v>3072948.947250678</v>
+        <v>3200190.637447824</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.142921110833598e-06</v>
+        <v>2.197497941411549e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.88541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2779671.012635893</v>
+        <v>2894768.934505452</v>
       </c>
     </row>
     <row r="4">
@@ -10012,28 +10012,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1791.845174309289</v>
+        <v>1861.635186559296</v>
       </c>
       <c r="AB4" t="n">
-        <v>2451.681618119946</v>
+        <v>2547.171391798447</v>
       </c>
       <c r="AC4" t="n">
-        <v>2217.69656544334</v>
+        <v>2304.072929142703</v>
       </c>
       <c r="AD4" t="n">
-        <v>1791845.174309289</v>
+        <v>1861635.186559296</v>
       </c>
       <c r="AE4" t="n">
-        <v>2451681.618119946</v>
+        <v>2547171.391798446</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.292222988815059e-06</v>
+        <v>2.484561122241104e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.28125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2217696.56544334</v>
+        <v>2304072.929142703</v>
       </c>
     </row>
     <row r="5">
@@ -10118,28 +10118,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1576.707812372011</v>
+        <v>1646.583075968038</v>
       </c>
       <c r="AB5" t="n">
-        <v>2157.321188326808</v>
+        <v>2252.927606657958</v>
       </c>
       <c r="AC5" t="n">
-        <v>1951.429481932201</v>
+        <v>2037.911357882277</v>
       </c>
       <c r="AD5" t="n">
-        <v>1576707.812372011</v>
+        <v>1646583.075968038</v>
       </c>
       <c r="AE5" t="n">
-        <v>2157321.188326808</v>
+        <v>2252927.606657958</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.369463858342204e-06</v>
+        <v>2.633072380078435e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.58854166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1951429.481932201</v>
+        <v>2037911.357882277</v>
       </c>
     </row>
     <row r="6">
@@ -10224,28 +10224,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1437.841430825009</v>
+        <v>1496.070906663583</v>
       </c>
       <c r="AB6" t="n">
-        <v>1967.318078741823</v>
+        <v>2046.99021648733</v>
       </c>
       <c r="AC6" t="n">
-        <v>1779.560002454968</v>
+        <v>1851.628343194591</v>
       </c>
       <c r="AD6" t="n">
-        <v>1437841.430825009</v>
+        <v>1496070.906663583</v>
       </c>
       <c r="AE6" t="n">
-        <v>1967318.078741824</v>
+        <v>2046990.21648733</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.418672538534053e-06</v>
+        <v>2.727686061106951e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.18541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1779560.002454968</v>
+        <v>1851628.343194592</v>
       </c>
     </row>
     <row r="7">
@@ -10330,28 +10330,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1335.312767790621</v>
+        <v>1405.102690532077</v>
       </c>
       <c r="AB7" t="n">
-        <v>1827.033838732795</v>
+        <v>1922.523489941748</v>
       </c>
       <c r="AC7" t="n">
-        <v>1652.664293422235</v>
+        <v>1739.040546340372</v>
       </c>
       <c r="AD7" t="n">
-        <v>1335312.767790621</v>
+        <v>1405102.690532077</v>
       </c>
       <c r="AE7" t="n">
-        <v>1827033.838732795</v>
+        <v>1922523.489941748</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.446400030159181e-06</v>
+        <v>2.780997794689583e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.971875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1652664.293422235</v>
+        <v>1739040.546340372</v>
       </c>
     </row>
     <row r="8">
@@ -10436,28 +10436,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1330.814875826898</v>
+        <v>1400.604798568354</v>
       </c>
       <c r="AB8" t="n">
-        <v>1820.879624515041</v>
+        <v>1916.369275723993</v>
       </c>
       <c r="AC8" t="n">
-        <v>1647.097428771928</v>
+        <v>1733.473681690065</v>
       </c>
       <c r="AD8" t="n">
-        <v>1330814.875826898</v>
+        <v>1400604.798568354</v>
       </c>
       <c r="AE8" t="n">
-        <v>1820879.624515041</v>
+        <v>1916369.275723993</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.449599356115927e-06</v>
+        <v>2.787149148564502e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.94791666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1647097.428771928</v>
+        <v>1733473.681690065</v>
       </c>
     </row>
   </sheetData>
@@ -10733,28 +10733,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8216.457074163196</v>
+        <v>8385.586458113779</v>
       </c>
       <c r="AB2" t="n">
-        <v>11242.11905337397</v>
+        <v>11473.52933795698</v>
       </c>
       <c r="AC2" t="n">
-        <v>10169.18698933272</v>
+        <v>10378.5118011415</v>
       </c>
       <c r="AD2" t="n">
-        <v>8216457.074163197</v>
+        <v>8385586.458113779</v>
       </c>
       <c r="AE2" t="n">
-        <v>11242119.05337397</v>
+        <v>11473529.33795698</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.589394554699322e-07</v>
+        <v>1.041261811981422e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.40208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>10169186.98933272</v>
+        <v>10378511.8011415</v>
       </c>
     </row>
     <row r="3">
@@ -10839,28 +10839,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2921.333401650631</v>
+        <v>3005.983479234769</v>
       </c>
       <c r="AB3" t="n">
-        <v>3997.097240272399</v>
+        <v>4112.919210920879</v>
       </c>
       <c r="AC3" t="n">
-        <v>3615.619889621861</v>
+        <v>3720.387973948803</v>
       </c>
       <c r="AD3" t="n">
-        <v>2921333.401650631</v>
+        <v>3005983.479234769</v>
       </c>
       <c r="AE3" t="n">
-        <v>3997097.240272399</v>
+        <v>4112919.210920879</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.010237847692301e-06</v>
+        <v>1.881996487322381e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.16145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3615619.889621861</v>
+        <v>3720387.973948803</v>
       </c>
     </row>
     <row r="4">
@@ -10945,28 +10945,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2248.105548090224</v>
+        <v>2320.662770234992</v>
       </c>
       <c r="AB4" t="n">
-        <v>3075.95719031427</v>
+        <v>3175.233182651473</v>
       </c>
       <c r="AC4" t="n">
-        <v>2782.392153203591</v>
+        <v>2872.193384166858</v>
       </c>
       <c r="AD4" t="n">
-        <v>2248105.548090224</v>
+        <v>2320662.770234992</v>
       </c>
       <c r="AE4" t="n">
-        <v>3075957.19031427</v>
+        <v>3175233.182651473</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.175522759017795e-06</v>
+        <v>2.189909740852272e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.03020833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2782392.153203591</v>
+        <v>2872193.384166858</v>
       </c>
     </row>
     <row r="5">
@@ -11051,28 +11051,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1968.739102400331</v>
+        <v>2041.210983690528</v>
       </c>
       <c r="AB5" t="n">
-        <v>2693.715694543438</v>
+        <v>2792.874919758437</v>
       </c>
       <c r="AC5" t="n">
-        <v>2436.631249309934</v>
+        <v>2526.32685724126</v>
       </c>
       <c r="AD5" t="n">
-        <v>1968739.102400331</v>
+        <v>2041210.983690528</v>
       </c>
       <c r="AE5" t="n">
-        <v>2693715.694543438</v>
+        <v>2792874.919758438</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.262135581767542e-06</v>
+        <v>2.351262860362153e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.13541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2436631.249309934</v>
+        <v>2526326.85724126</v>
       </c>
     </row>
     <row r="6">
@@ -11157,28 +11157,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1794.696006742236</v>
+        <v>1867.253139378453</v>
       </c>
       <c r="AB6" t="n">
-        <v>2455.582252824554</v>
+        <v>2554.858122692204</v>
       </c>
       <c r="AC6" t="n">
-        <v>2221.224929046316</v>
+        <v>2311.026049228355</v>
       </c>
       <c r="AD6" t="n">
-        <v>1794696.006742236</v>
+        <v>1867253.139378453</v>
       </c>
       <c r="AE6" t="n">
-        <v>2455582.252824554</v>
+        <v>2554858.122692204</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.318161872884102e-06</v>
+        <v>2.45563559131846e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.62083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2221224.929046316</v>
+        <v>2311026.049228355</v>
       </c>
     </row>
     <row r="7">
@@ -11263,28 +11263,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1681.073050926724</v>
+        <v>1753.459591362349</v>
       </c>
       <c r="AB7" t="n">
-        <v>2300.118311986739</v>
+        <v>2399.160770079541</v>
       </c>
       <c r="AC7" t="n">
-        <v>2080.59824852705</v>
+        <v>2170.188233426438</v>
       </c>
       <c r="AD7" t="n">
-        <v>1681073.050926724</v>
+        <v>1753459.591362349</v>
       </c>
       <c r="AE7" t="n">
-        <v>2300118.311986739</v>
+        <v>2399160.770079541</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.355365682995623e-06</v>
+        <v>2.524943467780259e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.30208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2080598.24852705</v>
+        <v>2170188.233426438</v>
       </c>
     </row>
     <row r="8">
@@ -11369,28 +11369,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1585.695023102064</v>
+        <v>1646.159389807463</v>
       </c>
       <c r="AB8" t="n">
-        <v>2169.617886535421</v>
+        <v>2252.347900561345</v>
       </c>
       <c r="AC8" t="n">
-        <v>1962.552600522309</v>
+        <v>2037.386978121902</v>
       </c>
       <c r="AD8" t="n">
-        <v>1585695.023102064</v>
+        <v>1646159.389807463</v>
       </c>
       <c r="AE8" t="n">
-        <v>2169617.886535421</v>
+        <v>2252347.900561345</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.383305303237478e-06</v>
+        <v>2.576992861170544e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.07291666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1962552.600522309</v>
+        <v>2037386.978121902</v>
       </c>
     </row>
     <row r="9">
@@ -11475,28 +11475,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1490.440129260232</v>
+        <v>1562.911921041878</v>
       </c>
       <c r="AB9" t="n">
-        <v>2039.285938431699</v>
+        <v>2138.445041177151</v>
       </c>
       <c r="AC9" t="n">
-        <v>1844.659350623568</v>
+        <v>1934.354847773668</v>
       </c>
       <c r="AD9" t="n">
-        <v>1490440.129260232</v>
+        <v>1562911.921041878</v>
       </c>
       <c r="AE9" t="n">
-        <v>2039285.938431699</v>
+        <v>2138445.041177151</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.405215847532405e-06</v>
+        <v>2.617810543355556e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.90104166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1844659.350623568</v>
+        <v>1934354.847773668</v>
       </c>
     </row>
     <row r="10">
@@ -11581,28 +11581,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1464.160035024812</v>
+        <v>1536.631826806458</v>
       </c>
       <c r="AB10" t="n">
-        <v>2003.328354102865</v>
+        <v>2102.487456848316</v>
       </c>
       <c r="AC10" t="n">
-        <v>1812.133507676291</v>
+        <v>1901.829004826391</v>
       </c>
       <c r="AD10" t="n">
-        <v>1464160.035024812</v>
+        <v>1536631.826806458</v>
       </c>
       <c r="AE10" t="n">
-        <v>2003328.354102865</v>
+        <v>2102487.456848316</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.410509670315072e-06</v>
+        <v>2.627672533682136e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.86041666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1812133.507676291</v>
+        <v>1901829.004826391</v>
       </c>
     </row>
     <row r="11">
@@ -11687,28 +11687,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1470.400507881703</v>
+        <v>1542.872299663348</v>
       </c>
       <c r="AB11" t="n">
-        <v>2011.866844375895</v>
+        <v>2111.025947121346</v>
       </c>
       <c r="AC11" t="n">
-        <v>1819.85709642151</v>
+        <v>1909.55259357161</v>
       </c>
       <c r="AD11" t="n">
-        <v>1470400.507881703</v>
+        <v>1542872.299663349</v>
       </c>
       <c r="AE11" t="n">
-        <v>2011866.844375895</v>
+        <v>2111025.947121346</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.409480315885109e-06</v>
+        <v>2.625754924451968e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.86770833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1819857.09642151</v>
+        <v>1909552.59357161</v>
       </c>
     </row>
   </sheetData>
@@ -11984,28 +11984,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3041.790667612355</v>
+        <v>3141.875019014336</v>
       </c>
       <c r="AB2" t="n">
-        <v>4161.912185760755</v>
+        <v>4298.852010758914</v>
       </c>
       <c r="AC2" t="n">
-        <v>3764.705128032032</v>
+        <v>3888.575608328612</v>
       </c>
       <c r="AD2" t="n">
-        <v>3041790.667612355</v>
+        <v>3141875.019014336</v>
       </c>
       <c r="AE2" t="n">
-        <v>4161912.185760755</v>
+        <v>4298852.010758914</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.367000804517147e-07</v>
+        <v>1.877612833660365e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.690625</v>
       </c>
       <c r="AH2" t="n">
-        <v>3764705.128032032</v>
+        <v>3888575.608328612</v>
       </c>
     </row>
     <row r="3">
@@ -12090,28 +12090,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1656.433744534845</v>
+        <v>1734.191788104037</v>
       </c>
       <c r="AB3" t="n">
-        <v>2266.405725971889</v>
+        <v>2372.797711626031</v>
       </c>
       <c r="AC3" t="n">
-        <v>2050.103144405546</v>
+        <v>2146.341228270946</v>
       </c>
       <c r="AD3" t="n">
-        <v>1656433.744534845</v>
+        <v>1734191.788104037</v>
       </c>
       <c r="AE3" t="n">
-        <v>2266405.725971889</v>
+        <v>2372797.711626031</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.301962204214815e-06</v>
+        <v>2.609779794612165e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.728125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2050103.144405546</v>
+        <v>2146341.228270947</v>
       </c>
     </row>
     <row r="4">
@@ -12196,28 +12196,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1343.413361956221</v>
+        <v>1410.136262890875</v>
       </c>
       <c r="AB4" t="n">
-        <v>1838.117429043162</v>
+        <v>1929.410645708596</v>
       </c>
       <c r="AC4" t="n">
-        <v>1662.690081429296</v>
+        <v>1745.270401627016</v>
       </c>
       <c r="AD4" t="n">
-        <v>1343413.361956222</v>
+        <v>1410136.262890875</v>
       </c>
       <c r="AE4" t="n">
-        <v>1838117.429043162</v>
+        <v>1929410.645708596</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.432094790119962e-06</v>
+        <v>2.870630218853704e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.571875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1662690.081429296</v>
+        <v>1745270.401627016</v>
       </c>
     </row>
     <row r="5">
@@ -12302,28 +12302,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1208.25193966858</v>
+        <v>1263.854446622677</v>
       </c>
       <c r="AB5" t="n">
-        <v>1653.183608168101</v>
+        <v>1729.261411192177</v>
       </c>
       <c r="AC5" t="n">
-        <v>1495.406084862303</v>
+        <v>1564.223129141629</v>
       </c>
       <c r="AD5" t="n">
-        <v>1208251.93966858</v>
+        <v>1263854.446622677</v>
       </c>
       <c r="AE5" t="n">
-        <v>1653183.608168101</v>
+        <v>1729261.411192177</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.486343215295579e-06</v>
+        <v>2.97937104362921e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.14895833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1495406.084862303</v>
+        <v>1564223.129141629</v>
       </c>
     </row>
     <row r="6">
@@ -12408,28 +12408,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1210.518381929306</v>
+        <v>1266.120888883402</v>
       </c>
       <c r="AB6" t="n">
-        <v>1656.284654457601</v>
+        <v>1732.362457481677</v>
       </c>
       <c r="AC6" t="n">
-        <v>1498.21117164628</v>
+        <v>1567.028215925605</v>
       </c>
       <c r="AD6" t="n">
-        <v>1210518.381929306</v>
+        <v>1266120.888883402</v>
       </c>
       <c r="AE6" t="n">
-        <v>1656284.654457601</v>
+        <v>1732362.457481677</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.488570423367305e-06</v>
+        <v>2.983835476317941e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.13229166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1498211.17164628</v>
+        <v>1567028.215925605</v>
       </c>
     </row>
   </sheetData>
@@ -12705,28 +12705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2036.010632558014</v>
+        <v>2121.002032412398</v>
       </c>
       <c r="AB2" t="n">
-        <v>2785.759569915631</v>
+        <v>2902.048552752331</v>
       </c>
       <c r="AC2" t="n">
-        <v>2519.890586400996</v>
+        <v>2625.081111928373</v>
       </c>
       <c r="AD2" t="n">
-        <v>2036010.632558014</v>
+        <v>2121002.032412398</v>
       </c>
       <c r="AE2" t="n">
-        <v>2785759.569915631</v>
+        <v>2902048.552752331</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.130508957736526e-06</v>
+        <v>2.365095439260108e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.27083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2519890.586400996</v>
+        <v>2625081.111928373</v>
       </c>
     </row>
     <row r="3">
@@ -12811,28 +12811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1219.926172219827</v>
+        <v>1283.797666261059</v>
       </c>
       <c r="AB3" t="n">
-        <v>1669.156808175508</v>
+        <v>1756.548604134168</v>
       </c>
       <c r="AC3" t="n">
-        <v>1509.85482507953</v>
+        <v>1588.906070687052</v>
       </c>
       <c r="AD3" t="n">
-        <v>1219926.172219827</v>
+        <v>1283797.666261059</v>
       </c>
       <c r="AE3" t="n">
-        <v>1669156.808175508</v>
+        <v>1756548.604134168</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.453653558672649e-06</v>
+        <v>3.041134153208688e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.87604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1509854.82507953</v>
+        <v>1588906.070687052</v>
       </c>
     </row>
     <row r="4">
@@ -12917,28 +12917,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1105.990049786297</v>
+        <v>1169.690951626937</v>
       </c>
       <c r="AB4" t="n">
-        <v>1513.264378954983</v>
+        <v>1600.422763138796</v>
       </c>
       <c r="AC4" t="n">
-        <v>1368.840550507414</v>
+        <v>1447.680660832284</v>
       </c>
       <c r="AD4" t="n">
-        <v>1105990.049786297</v>
+        <v>1169690.951626937</v>
       </c>
       <c r="AE4" t="n">
-        <v>1513264.378954983</v>
+        <v>1600422.763138796</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.511322441301249e-06</v>
+        <v>3.161781062159511e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1368840.550507414</v>
+        <v>1447680.660832284</v>
       </c>
     </row>
     <row r="5">
@@ -13023,28 +13023,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1112.072694992871</v>
+        <v>1175.773596833511</v>
       </c>
       <c r="AB5" t="n">
-        <v>1521.586922473985</v>
+        <v>1608.745306657798</v>
       </c>
       <c r="AC5" t="n">
-        <v>1376.368802153725</v>
+        <v>1455.208912478596</v>
       </c>
       <c r="AD5" t="n">
-        <v>1112072.694992871</v>
+        <v>1175773.596833511</v>
       </c>
       <c r="AE5" t="n">
-        <v>1521586.922473985</v>
+        <v>1608745.306657798</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.51248244756102e-06</v>
+        <v>3.164207867799326e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.4125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1376368.802153725</v>
+        <v>1455208.912478596</v>
       </c>
     </row>
   </sheetData>
@@ -23629,28 +23629,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1464.556295864033</v>
+        <v>1536.413992284292</v>
       </c>
       <c r="AB2" t="n">
-        <v>2003.870535664882</v>
+        <v>2102.189406044909</v>
       </c>
       <c r="AC2" t="n">
-        <v>1812.623944190986</v>
+        <v>1901.559399573344</v>
       </c>
       <c r="AD2" t="n">
-        <v>1464556.295864034</v>
+        <v>1536413.992284292</v>
       </c>
       <c r="AE2" t="n">
-        <v>2003870.535664882</v>
+        <v>2102189.406044908</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.295113789777805e-06</v>
+        <v>2.81539058452962e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.7875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1812623.944190986</v>
+        <v>1901559.399573344</v>
       </c>
     </row>
     <row r="3">
@@ -23735,28 +23735,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1033.855972141798</v>
+        <v>1095.448283359162</v>
       </c>
       <c r="AB3" t="n">
-        <v>1414.567351590872</v>
+        <v>1498.840669059465</v>
       </c>
       <c r="AC3" t="n">
-        <v>1279.563028912786</v>
+        <v>1355.79341924052</v>
       </c>
       <c r="AD3" t="n">
-        <v>1033855.972141798</v>
+        <v>1095448.283359162</v>
       </c>
       <c r="AE3" t="n">
-        <v>1414567.351590872</v>
+        <v>1498840.669059465</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.516937382626579e-06</v>
+        <v>3.297603081734296e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.771875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1279563.028912786</v>
+        <v>1355793.41924052</v>
       </c>
     </row>
     <row r="4">
@@ -23841,28 +23841,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1042.883432483872</v>
+        <v>1104.475743701236</v>
       </c>
       <c r="AB4" t="n">
-        <v>1426.919121094339</v>
+        <v>1511.192438562932</v>
       </c>
       <c r="AC4" t="n">
-        <v>1290.735962870659</v>
+        <v>1366.966353198394</v>
       </c>
       <c r="AD4" t="n">
-        <v>1042883.432483872</v>
+        <v>1104475.743701236</v>
       </c>
       <c r="AE4" t="n">
-        <v>1426919.121094339</v>
+        <v>1511192.438562932</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.516765957902584e-06</v>
+        <v>3.297230429108945e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.771875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1290735.962870659</v>
+        <v>1366966.353198394</v>
       </c>
     </row>
   </sheetData>
@@ -24138,28 +24138,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>942.5304628518581</v>
+        <v>1008.94651203855</v>
       </c>
       <c r="AB2" t="n">
-        <v>1289.611760783258</v>
+        <v>1380.485129349786</v>
       </c>
       <c r="AC2" t="n">
-        <v>1166.533024315577</v>
+        <v>1248.73356612769</v>
       </c>
       <c r="AD2" t="n">
-        <v>942530.4628518581</v>
+        <v>1008946.51203855</v>
       </c>
       <c r="AE2" t="n">
-        <v>1289611.760783258</v>
+        <v>1380485.129349786</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.448745309195979e-06</v>
+        <v>3.445879781200199e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.22916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1166533.024315577</v>
+        <v>1248733.56612769</v>
       </c>
     </row>
     <row r="3">
@@ -24244,28 +24244,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>955.7006384236087</v>
+        <v>1022.1166876103</v>
       </c>
       <c r="AB3" t="n">
-        <v>1307.631776027666</v>
+        <v>1398.505144594195</v>
       </c>
       <c r="AC3" t="n">
-        <v>1182.83323459631</v>
+        <v>1265.033776408422</v>
       </c>
       <c r="AD3" t="n">
-        <v>955700.6384236086</v>
+        <v>1022116.6876103</v>
       </c>
       <c r="AE3" t="n">
-        <v>1307631.776027666</v>
+        <v>1398505.144594195</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.448745309195979e-06</v>
+        <v>3.445879781200199e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.22916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1182833.23459631</v>
+        <v>1265033.776408422</v>
       </c>
     </row>
   </sheetData>
@@ -24541,28 +24541,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4401.031056190389</v>
+        <v>4527.701534648508</v>
       </c>
       <c r="AB2" t="n">
-        <v>6021.684850867124</v>
+        <v>6195.000987800638</v>
       </c>
       <c r="AC2" t="n">
-        <v>5446.983700187907</v>
+        <v>5603.758788263205</v>
       </c>
       <c r="AD2" t="n">
-        <v>4401031.056190389</v>
+        <v>4527701.534648508</v>
       </c>
       <c r="AE2" t="n">
-        <v>6021684.850867123</v>
+        <v>6195000.987800637</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.778115098196784e-07</v>
+        <v>1.50940405576705e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.60520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>5446983.700187907</v>
+        <v>5603758.788263205</v>
       </c>
     </row>
     <row r="3">
@@ -24647,28 +24647,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2094.395153912927</v>
+        <v>2175.057948021003</v>
       </c>
       <c r="AB3" t="n">
-        <v>2865.64384777672</v>
+        <v>2976.010241266712</v>
       </c>
       <c r="AC3" t="n">
-        <v>2592.15082090131</v>
+        <v>2691.984000696823</v>
       </c>
       <c r="AD3" t="n">
-        <v>2094395.153912927</v>
+        <v>2175057.948021003</v>
       </c>
       <c r="AE3" t="n">
-        <v>2865643.84777672</v>
+        <v>2976010.241266712</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.18018086653154e-06</v>
+        <v>2.290233255733586e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.58125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2592150.82090131</v>
+        <v>2691984.000696823</v>
       </c>
     </row>
     <row r="4">
@@ -24753,28 +24753,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1682.614788670815</v>
+        <v>1751.669075131716</v>
       </c>
       <c r="AB4" t="n">
-        <v>2302.227785584874</v>
+        <v>2396.710906780789</v>
       </c>
       <c r="AC4" t="n">
-        <v>2082.506396925643</v>
+        <v>2167.972181642514</v>
       </c>
       <c r="AD4" t="n">
-        <v>1682614.788670816</v>
+        <v>1751669.075131716</v>
       </c>
       <c r="AE4" t="n">
-        <v>2302227.785584874</v>
+        <v>2396710.906780789</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.324664547584097e-06</v>
+        <v>2.570615136715833e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.1</v>
       </c>
       <c r="AH4" t="n">
-        <v>2082506.396925644</v>
+        <v>2167972.181642514</v>
       </c>
     </row>
     <row r="5">
@@ -24859,28 +24859,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1481.081268865133</v>
+        <v>1550.050214471462</v>
       </c>
       <c r="AB5" t="n">
-        <v>2026.480732755343</v>
+        <v>2120.84708682906</v>
       </c>
       <c r="AC5" t="n">
-        <v>1833.076255804744</v>
+        <v>1918.436417489675</v>
       </c>
       <c r="AD5" t="n">
-        <v>1481081.268865133</v>
+        <v>1550050.214471462</v>
       </c>
       <c r="AE5" t="n">
-        <v>2026480.732755343</v>
+        <v>2120847.08682906</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.39913749926614e-06</v>
+        <v>2.715135722866427e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.45520833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1833076.255804744</v>
+        <v>1918436.417489676</v>
       </c>
     </row>
     <row r="6">
@@ -24965,28 +24965,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1340.71447023562</v>
+        <v>1398.330841249939</v>
       </c>
       <c r="AB6" t="n">
-        <v>1834.424686324336</v>
+        <v>1913.257947001021</v>
       </c>
       <c r="AC6" t="n">
-        <v>1659.349768892758</v>
+        <v>1730.659293813637</v>
       </c>
       <c r="AD6" t="n">
-        <v>1340714.47023562</v>
+        <v>1398330.841249939</v>
       </c>
       <c r="AE6" t="n">
-        <v>1834424.686324336</v>
+        <v>1913257.947001021</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.44822194469294e-06</v>
+        <v>2.810387927374773e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.06666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1659349.768892758</v>
+        <v>1730659.293813637</v>
       </c>
     </row>
     <row r="7">
@@ -25071,28 +25071,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1297.019033958395</v>
+        <v>1366.073230910745</v>
       </c>
       <c r="AB7" t="n">
-        <v>1774.638662703238</v>
+        <v>1869.121661429604</v>
       </c>
       <c r="AC7" t="n">
-        <v>1605.269639455847</v>
+        <v>1690.73531339149</v>
       </c>
       <c r="AD7" t="n">
-        <v>1297019.033958395</v>
+        <v>1366073.230910745</v>
       </c>
       <c r="AE7" t="n">
-        <v>1774638.662703237</v>
+        <v>1869121.661429604</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.457761868255516e-06</v>
+        <v>2.828900895022163e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.99479166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1605269.639455847</v>
+        <v>1690735.31339149</v>
       </c>
     </row>
     <row r="8">
@@ -25177,28 +25177,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1301.60936705531</v>
+        <v>1370.66356400766</v>
       </c>
       <c r="AB8" t="n">
-        <v>1780.919358957642</v>
+        <v>1875.402357684008</v>
       </c>
       <c r="AC8" t="n">
-        <v>1610.950914874743</v>
+        <v>1696.416588810386</v>
       </c>
       <c r="AD8" t="n">
-        <v>1301609.36705531</v>
+        <v>1370663.56400766</v>
       </c>
       <c r="AE8" t="n">
-        <v>1780919.358957642</v>
+        <v>1875402.357684008</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.459300565604319e-06</v>
+        <v>2.831886857545936e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.98333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1610950.914874743</v>
+        <v>1696416.588810386</v>
       </c>
     </row>
   </sheetData>
@@ -25474,28 +25474,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7202.503322009203</v>
+        <v>7370.148270157802</v>
       </c>
       <c r="AB2" t="n">
-        <v>9854.782797194308</v>
+        <v>10084.16201122437</v>
       </c>
       <c r="AC2" t="n">
-        <v>8914.256158304237</v>
+        <v>9121.743742083007</v>
       </c>
       <c r="AD2" t="n">
-        <v>7202503.322009203</v>
+        <v>7370148.270157803</v>
       </c>
       <c r="AE2" t="n">
-        <v>9854782.797194308</v>
+        <v>10084162.01122437</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.997674114782726e-07</v>
+        <v>1.125398910251792e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.75416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>8914256.158304237</v>
+        <v>9121743.742083006</v>
       </c>
     </row>
     <row r="3">
@@ -25580,28 +25580,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2732.562420198573</v>
+        <v>2828.371724976997</v>
       </c>
       <c r="AB3" t="n">
-        <v>3738.812455461737</v>
+        <v>3869.902973067798</v>
       </c>
       <c r="AC3" t="n">
-        <v>3381.985442168566</v>
+        <v>3500.564864760996</v>
       </c>
       <c r="AD3" t="n">
-        <v>2732562.420198573</v>
+        <v>2828371.724976997</v>
       </c>
       <c r="AE3" t="n">
-        <v>3738812.455461737</v>
+        <v>3869902.973067798</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.042364623656924e-06</v>
+        <v>1.955884879868998e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.81666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3381985.442168566</v>
+        <v>3500564.864760996</v>
       </c>
     </row>
     <row r="4">
@@ -25686,28 +25686,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2121.82138580687</v>
+        <v>2205.643859881172</v>
       </c>
       <c r="AB4" t="n">
-        <v>2903.169628213969</v>
+        <v>3017.859235229168</v>
       </c>
       <c r="AC4" t="n">
-        <v>2626.095193521391</v>
+        <v>2729.838985410821</v>
       </c>
       <c r="AD4" t="n">
-        <v>2121821.38580687</v>
+        <v>2205643.859881172</v>
       </c>
       <c r="AE4" t="n">
-        <v>2903169.628213969</v>
+        <v>3017859.235229168</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.203241667279649e-06</v>
+        <v>2.257753314386475e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.83645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2626095.193521391</v>
+        <v>2729838.985410821</v>
       </c>
     </row>
     <row r="5">
@@ -25792,28 +25792,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1860.44212131479</v>
+        <v>1944.179254534519</v>
       </c>
       <c r="AB5" t="n">
-        <v>2545.538987296591</v>
+        <v>2660.111827189415</v>
       </c>
       <c r="AC5" t="n">
-        <v>2302.596319035411</v>
+        <v>2406.234487892855</v>
       </c>
       <c r="AD5" t="n">
-        <v>1860442.12131479</v>
+        <v>1944179.254534519</v>
       </c>
       <c r="AE5" t="n">
-        <v>2545538.987296591</v>
+        <v>2660111.827189415</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.287757717846427e-06</v>
+        <v>2.416338574916394e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.99375</v>
       </c>
       <c r="AH5" t="n">
-        <v>2302596.319035411</v>
+        <v>2406234.487892855</v>
       </c>
     </row>
     <row r="6">
@@ -25898,28 +25898,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1704.763463466919</v>
+        <v>1776.684447691666</v>
       </c>
       <c r="AB6" t="n">
-        <v>2332.532579571473</v>
+        <v>2430.938043117661</v>
       </c>
       <c r="AC6" t="n">
-        <v>2109.918943907207</v>
+        <v>2198.932728125482</v>
       </c>
       <c r="AD6" t="n">
-        <v>1704763.463466919</v>
+        <v>1776684.447691666</v>
       </c>
       <c r="AE6" t="n">
-        <v>2332532.579571472</v>
+        <v>2430938.043117661</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.342174192509598e-06</v>
+        <v>2.518445225117236e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.50729166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2109918.943907207</v>
+        <v>2198932.728125482</v>
       </c>
     </row>
     <row r="7">
@@ -26004,28 +26004,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1592.508848151274</v>
+        <v>1652.443091180447</v>
       </c>
       <c r="AB7" t="n">
-        <v>2178.940862572496</v>
+        <v>2260.945537997201</v>
       </c>
       <c r="AC7" t="n">
-        <v>1970.985804811284</v>
+        <v>2045.164069107741</v>
       </c>
       <c r="AD7" t="n">
-        <v>1592508.848151274</v>
+        <v>1652443.091180447</v>
       </c>
       <c r="AE7" t="n">
-        <v>2178940.862572496</v>
+        <v>2260945.537997202</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.379242635740641e-06</v>
+        <v>2.588000163946148e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.19895833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1970985.804811284</v>
+        <v>2045164.069107741</v>
       </c>
     </row>
     <row r="8">
@@ -26110,28 +26110,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1488.988290001273</v>
+        <v>1560.823933371448</v>
       </c>
       <c r="AB8" t="n">
-        <v>2037.299467906962</v>
+        <v>2135.588164330952</v>
       </c>
       <c r="AC8" t="n">
-        <v>1842.862466057683</v>
+        <v>1931.77062724402</v>
       </c>
       <c r="AD8" t="n">
-        <v>1488988.290001273</v>
+        <v>1560823.933371448</v>
       </c>
       <c r="AE8" t="n">
-        <v>2037299.467906962</v>
+        <v>2135588.164330952</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.405783641094067e-06</v>
+        <v>2.637801500147649e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.9875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1842862.466057683</v>
+        <v>1931770.62724402</v>
       </c>
     </row>
     <row r="9">
@@ -26216,28 +26216,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1424.428227838185</v>
+        <v>1496.26387120836</v>
       </c>
       <c r="AB9" t="n">
-        <v>1948.965542666497</v>
+        <v>2047.254239090488</v>
       </c>
       <c r="AC9" t="n">
-        <v>1762.959006664725</v>
+        <v>1851.867167851062</v>
       </c>
       <c r="AD9" t="n">
-        <v>1424428.227838185</v>
+        <v>1496263.87120836</v>
       </c>
       <c r="AE9" t="n">
-        <v>1948965.542666497</v>
+        <v>2047254.239090488</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.422093756115726e-06</v>
+        <v>2.66840567323237e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.86041666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1762959.006664725</v>
+        <v>1851867.167851062</v>
       </c>
     </row>
     <row r="10">
@@ -26322,28 +26322,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1428.606090166919</v>
+        <v>1500.441733537094</v>
       </c>
       <c r="AB10" t="n">
-        <v>1954.681878218949</v>
+        <v>2052.970574642939</v>
       </c>
       <c r="AC10" t="n">
-        <v>1768.129783174978</v>
+        <v>1857.037944361315</v>
       </c>
       <c r="AD10" t="n">
-        <v>1428606.090166919</v>
+        <v>1500441.733537094</v>
       </c>
       <c r="AE10" t="n">
-        <v>1954681.878218949</v>
+        <v>2052970.574642939</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.422093756115726e-06</v>
+        <v>2.66840567323237e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.86041666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1768129.783174978</v>
+        <v>1857037.944361315</v>
       </c>
     </row>
   </sheetData>
@@ -26619,28 +26619,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>919.5943644257974</v>
+        <v>992.7905672770928</v>
       </c>
       <c r="AB2" t="n">
-        <v>1258.229579047474</v>
+        <v>1358.379852977181</v>
       </c>
       <c r="AC2" t="n">
-        <v>1138.145913959487</v>
+        <v>1228.737986307136</v>
       </c>
       <c r="AD2" t="n">
-        <v>919594.3644257974</v>
+        <v>992790.5672770928</v>
       </c>
       <c r="AE2" t="n">
-        <v>1258229.579047474</v>
+        <v>1358379.852977181</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.338996431672356e-06</v>
+        <v>3.348728459800461e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.821875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1138145.913959487</v>
+        <v>1228737.986307136</v>
       </c>
     </row>
   </sheetData>
@@ -26916,28 +26916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2347.838628852312</v>
+        <v>2434.264953301034</v>
       </c>
       <c r="AB2" t="n">
-        <v>3212.41639132596</v>
+        <v>3330.668701297046</v>
       </c>
       <c r="AC2" t="n">
-        <v>2905.827879592411</v>
+        <v>3012.794355068011</v>
       </c>
       <c r="AD2" t="n">
-        <v>2347838.628852312</v>
+        <v>2434264.953301034</v>
       </c>
       <c r="AE2" t="n">
-        <v>3212416.39132596</v>
+        <v>3330668.701297046</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.060631841571594e-06</v>
+        <v>2.184141606502852e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.0375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2905827.879592411</v>
+        <v>3012794.355068011</v>
       </c>
     </row>
     <row r="3">
@@ -27022,28 +27022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1376.286602230358</v>
+        <v>1441.085032730395</v>
       </c>
       <c r="AB3" t="n">
-        <v>1883.096046651242</v>
+        <v>1971.756117966388</v>
       </c>
       <c r="AC3" t="n">
-        <v>1703.376002900747</v>
+        <v>1783.574481444768</v>
       </c>
       <c r="AD3" t="n">
-        <v>1376286.602230358</v>
+        <v>1441085.032730395</v>
       </c>
       <c r="AE3" t="n">
-        <v>1883096.046651242</v>
+        <v>1971756.117966388</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.398009114040711e-06</v>
+        <v>2.878897042843867e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.16666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1703376.002900747</v>
+        <v>1783574.481444768</v>
       </c>
     </row>
     <row r="4">
@@ -27128,28 +27128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1140.881847402685</v>
+        <v>1205.59493704815</v>
       </c>
       <c r="AB4" t="n">
-        <v>1561.004875771195</v>
+        <v>1649.548179964145</v>
       </c>
       <c r="AC4" t="n">
-        <v>1412.024761311695</v>
+        <v>1492.117616823777</v>
       </c>
       <c r="AD4" t="n">
-        <v>1140881.847402685</v>
+        <v>1205594.93704815</v>
       </c>
       <c r="AE4" t="n">
-        <v>1561004.875771195</v>
+        <v>1649548.179964145</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.503010849857575e-06</v>
+        <v>3.095125380485335e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.31770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1412024.761311695</v>
+        <v>1492117.616823777</v>
       </c>
     </row>
     <row r="5">
@@ -27234,28 +27234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1144.278129809908</v>
+        <v>1208.991219455373</v>
       </c>
       <c r="AB5" t="n">
-        <v>1565.651819194163</v>
+        <v>1654.195123387113</v>
       </c>
       <c r="AC5" t="n">
-        <v>1416.228206976401</v>
+        <v>1496.321062488483</v>
       </c>
       <c r="AD5" t="n">
-        <v>1144278.129809908</v>
+        <v>1208991.219455373</v>
       </c>
       <c r="AE5" t="n">
-        <v>1565651.819194163</v>
+        <v>1654195.123387113</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.504970446793505e-06</v>
+        <v>3.099160746040074e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.303125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1416228.206976401</v>
+        <v>1496321.062488483</v>
       </c>
     </row>
   </sheetData>
@@ -27531,28 +27531,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3447.524749821247</v>
+        <v>3560.052482254411</v>
       </c>
       <c r="AB2" t="n">
-        <v>4717.055456763404</v>
+        <v>4871.020864651653</v>
       </c>
       <c r="AC2" t="n">
-        <v>4266.86630439864</v>
+        <v>4406.137469849837</v>
       </c>
       <c r="AD2" t="n">
-        <v>3447524.749821247</v>
+        <v>3560052.482254411</v>
       </c>
       <c r="AE2" t="n">
-        <v>4717055.456763403</v>
+        <v>4871020.864651653</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.806040723220752e-07</v>
+        <v>1.744638796855751e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.596875</v>
       </c>
       <c r="AH2" t="n">
-        <v>4266866.30439864</v>
+        <v>4406137.469849837</v>
       </c>
     </row>
     <row r="3">
@@ -27637,28 +27637,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1809.441737600812</v>
+        <v>1877.009671082004</v>
       </c>
       <c r="AB3" t="n">
-        <v>2475.758012320991</v>
+        <v>2568.207439796803</v>
       </c>
       <c r="AC3" t="n">
-        <v>2239.475142373269</v>
+        <v>2323.101326244376</v>
       </c>
       <c r="AD3" t="n">
-        <v>1809441.737600812</v>
+        <v>1877009.671082004</v>
       </c>
       <c r="AE3" t="n">
-        <v>2475758.012320991</v>
+        <v>2568207.439796803</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.258410104421691e-06</v>
+        <v>2.493142104987222e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.01354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2239475.142373269</v>
+        <v>2323101.326244376</v>
       </c>
     </row>
     <row r="4">
@@ -27743,28 +27743,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1457.108124198066</v>
+        <v>1524.675968170707</v>
       </c>
       <c r="AB4" t="n">
-        <v>1993.679618601362</v>
+        <v>2086.128923607626</v>
       </c>
       <c r="AC4" t="n">
-        <v>1803.405633948966</v>
+        <v>1887.031707038847</v>
       </c>
       <c r="AD4" t="n">
-        <v>1457108.124198066</v>
+        <v>1524675.968170707</v>
       </c>
       <c r="AE4" t="n">
-        <v>1993679.618601362</v>
+        <v>2086128.923607626</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.392992694299873e-06</v>
+        <v>2.75977499377646e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.75729166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1803405.633948966</v>
+        <v>1887031.707038847</v>
       </c>
     </row>
     <row r="5">
@@ -27849,28 +27849,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1277.32726111843</v>
+        <v>1333.633887270849</v>
       </c>
       <c r="AB5" t="n">
-        <v>1747.695510363894</v>
+        <v>1824.736720338662</v>
       </c>
       <c r="AC5" t="n">
-        <v>1580.897903760817</v>
+        <v>1650.586408783611</v>
       </c>
       <c r="AD5" t="n">
-        <v>1277327.26111843</v>
+        <v>1333633.887270849</v>
       </c>
       <c r="AE5" t="n">
-        <v>1747695.510363894</v>
+        <v>1824736.720338662</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.464214555532135e-06</v>
+        <v>2.90087861366142e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.184375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1580897.903760817</v>
+        <v>1650586.408783611</v>
       </c>
     </row>
     <row r="6">
@@ -27955,28 +27955,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1240.935730964725</v>
+        <v>1297.242357117144</v>
       </c>
       <c r="AB6" t="n">
-        <v>1697.903013326593</v>
+        <v>1774.944223301361</v>
       </c>
       <c r="AC6" t="n">
-        <v>1535.857532756548</v>
+        <v>1605.546037779342</v>
       </c>
       <c r="AD6" t="n">
-        <v>1240935.730964725</v>
+        <v>1297242.357117144</v>
       </c>
       <c r="AE6" t="n">
-        <v>1697903.013326593</v>
+        <v>1774944.223301361</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.478836262142731e-06</v>
+        <v>2.929846906485484e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.07395833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1535857.532756548</v>
+        <v>1605546.037779342</v>
       </c>
     </row>
     <row r="7">
@@ -28061,28 +28061,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1248.404858097525</v>
+        <v>1304.711484249944</v>
       </c>
       <c r="AB7" t="n">
-        <v>1708.122602584323</v>
+        <v>1785.163812559091</v>
       </c>
       <c r="AC7" t="n">
-        <v>1545.101778758804</v>
+        <v>1614.790283781597</v>
       </c>
       <c r="AD7" t="n">
-        <v>1248404.858097525</v>
+        <v>1304711.484249944</v>
       </c>
       <c r="AE7" t="n">
-        <v>1708122.602584322</v>
+        <v>1785163.812559091</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.478836262142731e-06</v>
+        <v>2.929846906485484e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.07395833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1545101.778758804</v>
+        <v>1614790.283781597</v>
       </c>
     </row>
   </sheetData>
